--- a/data/trans_camb/P1805_2016_2023-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1805_2016_2023-Clase-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>1.127542273413014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.457470381962367</v>
+        <v>1.457470381962366</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7466421337622415</v>
+        <v>-0.5444518940239662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.757904495378402</v>
+        <v>-2.0558006183306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.517963588520573</v>
+        <v>-0.3852474882970127</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.476291763249566</v>
+        <v>4.37767666867789</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.691901309343304</v>
+        <v>3.864920023468982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.364877705542526</v>
+        <v>3.368550228216234</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>0.7153650852897075</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2606350948978258</v>
+        <v>0.2606350948978257</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4526141271480679</v>
+        <v>0.4526141271480675</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2997973992952196</v>
+        <v>-0.2599773953759164</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2973982002864597</v>
+        <v>-0.3393671832281598</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1177143351036597</v>
+        <v>-0.1025594992422911</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.453352732649069</v>
+        <v>3.175168925191155</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.262433613242378</v>
+        <v>1.414468501156122</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.480723428131175</v>
+        <v>1.3708837157332</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.530742000606551</v>
+        <v>1.53074200060655</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>3.688764323922847</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6643282457381128</v>
+        <v>-0.5148214177142291</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.094593600613545</v>
+        <v>1.220912580176732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7754954301787017</v>
+        <v>0.7482418931937439</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.800170627099067</v>
+        <v>3.87998667653638</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.315252731974287</v>
+        <v>6.364219976537848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.141951266791937</v>
+        <v>4.122210390610418</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.7931668910385835</v>
+        <v>0.7931668910385831</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.624128277302182</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3020225959275683</v>
+        <v>-0.2496687593979357</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1692038198872252</v>
+        <v>0.2354751666899189</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2120347453533004</v>
+        <v>0.1674917280571625</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.257274878086545</v>
+        <v>3.921785396539694</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5.452684657156641</v>
+        <v>5.76731913855062</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.863293235471562</v>
+        <v>2.836971681722328</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.4400199710979359</v>
+        <v>0.4400199710979352</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>-2.736313227605427</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.630184516966013</v>
+        <v>-1.697536444246415</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.995451427848223</v>
+        <v>-8.26334161309115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.216185339527976</v>
+        <v>-2.457179424968651</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.907864181966409</v>
+        <v>2.717807222227566</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.974839930773097</v>
+        <v>1.333768024456619</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.841372530725734</v>
+        <v>1.64619528367696</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.1813885456159884</v>
+        <v>0.1813885456159881</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>-0.4111124330308393</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.517309932129556</v>
+        <v>-0.5264847297257369</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7564769624774572</v>
+        <v>-0.7566352041260365</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5033631715902424</v>
+        <v>-0.5439113922973604</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.797029783754757</v>
+        <v>1.752790539780407</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7296935070187074</v>
+        <v>0.5160077524817699</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8729901361403886</v>
+        <v>0.6750991562075525</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>0.2418220039107868</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.227468766057499</v>
+        <v>1.227468766057501</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6128985789725921</v>
+        <v>0.6295257249131471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.807954045920522</v>
+        <v>-1.859200091020681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2025170513053221</v>
+        <v>0.07077252576712642</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.35538306864521</v>
+        <v>3.401542081277902</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.958359542752855</v>
+        <v>1.948414544549777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.369603732047923</v>
+        <v>2.338222483166432</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.05855486325247065</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5036805260081629</v>
+        <v>0.5036805260081638</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2750858399314789</v>
+        <v>0.2919621216045947</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3396858845283261</v>
+        <v>-0.3471588000223866</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05654966607433188</v>
+        <v>0.004965885482171895</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.214073989126805</v>
+        <v>4.475611826643966</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6551348522262385</v>
+        <v>0.6242288395189883</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.25188286282044</v>
+        <v>1.151893726355598</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>-0.5810328630060778</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.1248601182842236</v>
+        <v>-0.124860118284224</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.300371055540508</v>
+        <v>-1.319826746856193</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.269930187893201</v>
+        <v>-2.499535125900236</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.384592781159818</v>
+        <v>-1.388798491972441</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.941066327677785</v>
+        <v>1.877712078976178</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.415846199816751</v>
+        <v>1.230222721537155</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.10214175445003</v>
+        <v>1.086345590218338</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>-0.151776620096615</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.04395982962752496</v>
+        <v>-0.04395982962752508</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5956285877408791</v>
+        <v>-0.5785306347793505</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4482191274540221</v>
+        <v>-0.4772974379787726</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3792580567379598</v>
+        <v>-0.3824527729542786</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.95025374890154</v>
+        <v>2.049455719355055</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.605847310864255</v>
+        <v>0.4669988588017716</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5146793888177317</v>
+        <v>0.5288936387810994</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>3.604462571703391</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.05687159192305571</v>
+        <v>-0.05687159192305537</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0.7390469167983644</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.1238523912974634</v>
+        <v>-0.4255677347552736</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.719019901640903</v>
+        <v>-1.777753121281714</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.7314715348386881</v>
+        <v>-0.9078214353687285</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.64165196093748</v>
+        <v>10.19348961665933</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.803438485421332</v>
+        <v>1.654446315670379</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.875859628107702</v>
+        <v>2.491153118872001</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>1.528727574421014</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.0180758090495418</v>
+        <v>-0.0180758090495417</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.247925460942972</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2899774840239143</v>
+        <v>-0.3705078330413789</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4678049107499524</v>
+        <v>-0.460576293272389</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2148289760262121</v>
+        <v>-0.2852186761383917</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>8.730608576282648</v>
+        <v>5.823755408644427</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7797233146409714</v>
+        <v>0.6543881610685794</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.21773959944397</v>
+        <v>1.026089726451956</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1206,7 @@
         <v>0.4163236117737501</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.9353236096883506</v>
+        <v>0.9353236096883519</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.6540878226596942</v>
+        <v>0.6393692410558891</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.407918299690583</v>
+        <v>-0.5847289592467636</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.316622508411423</v>
+        <v>0.3748401238775287</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.397728963055648</v>
+        <v>2.312660540193214</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.469478475628861</v>
+        <v>1.240645807090252</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.698369518265283</v>
+        <v>1.581430761489933</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
         <v>0.1122882814104354</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3369727051457941</v>
+        <v>0.3369727051457946</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.293940930391152</v>
+        <v>0.2943652029486093</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.09811322245517921</v>
+        <v>-0.1395816593715754</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.09875348144143445</v>
+        <v>0.1226001308594379</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.585969354554959</v>
+        <v>1.517392432861589</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4765701208982495</v>
+        <v>0.3779274862619365</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6702909987413539</v>
+        <v>0.6405856722553624</v>
       </c>
     </row>
     <row r="46">
